--- a/Iolist_테이블명세.xlsx
+++ b/Iolist_테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505001\Documents\workspace\java\Java_900_Iolist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35ED249-177D-4DB8-A403-B0BA8A82086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EAC89D-4149-4259-B089-6A9EBF8581BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2471,7 +2471,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3639,12 +3639,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3657,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7646CFD0-10EC-402D-931E-991A10B97B84}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4876,12 +4876,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
